--- a/mead johnson_milk_formulas.xlsx
+++ b/mead johnson_milk_formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yeshwanth\Desktop\uyyaala to kidsfud products\milk_formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFD6640-D64D-4A09-B0ED-8414FCA8C103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5972A189-F4CE-4C5C-A3D8-3D5AD4445A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>https://www.uyyaala.com/products/enfamil-neuro-pro-infant-formula-0-12-months-516gms</t>
   </si>
@@ -31,79 +31,22 @@
     <t>https://www.uyyaala.com/products/enfamil-neuro-pro-care-infant-formula-0-12-months-1-17-kg</t>
   </si>
   <si>
-    <t>https://www.uyyaala.com/products/mead-johnson-enfamil-neuropro-infant-formula-0-12-months-587g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/mead-johnson-enfamil-a-follow-up-formula-stage-2-0-to-6-months-400g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/enfamil-neuro-pro-infant-formula-refill-pack-for-babies-0-12m-890g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/mead-johnson-enfamil-a-infant-formula-stage-1-up-to-6-months-400g</t>
-  </si>
-  <si>
     <t>https://www.uyyaala.com/products/enfagrow-premium-toddler-next-step-milk-drink-natural-milk-flavor-1-04-kg-1-3y</t>
   </si>
   <si>
     <t>https://www.uyyaala.com/products/enfamil-neuro-pro-care-infant-formula-0-12-months-587gms</t>
   </si>
   <si>
-    <t>https://www.uyyaala.com/products/mead-johnson-enfamil-neuropro-gentlease-baby-infant-formula-0-12-months-567g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/mead-johnson-enfamil-a-infant-formula-stage-1-up-to-6-months-400g-1</t>
-  </si>
-  <si>
     <t>https://www.uyyaala.com/products/enfamil-a-follow-up-formula-stage-3-400g-12-24m</t>
   </si>
   <si>
-    <t>https://www.uyyaala.com/products/mead-johnson-enfamil-a-nutritional-milk-powder-stage-2-vanilla-3-6-years-400g</t>
-  </si>
-  <si>
     <t>https://www.uyyaala.com/products/enfamil-neuro-pro-care-gentlease-baby-infant-formula-0-12-months-1-13kg-each-567g</t>
   </si>
   <si>
-    <t>https://www.uyyaala.com/products/enfamil-neuro-pro-infant-formula-0-12-months-802gms</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/enfamil-neuro-pro-gentlease-infant-formula-refill-pack-for-babies-0-12m-998g-1</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/enfamil-a-dha-plus-infant-formula-0-12-months-765gms</t>
-  </si>
-  <si>
     <t>https://www.uyyaala.com/products/mead-johnson-enfagrow-a-nutritional-milk-powder-chocolate-flavour-for-2yrs-400g</t>
   </si>
   <si>
-    <t>https://www.uyyaala.com/products/enfamil-premium-gentlease-toddler-nutritional-drink-1-year-825g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/enfamil-neuro-pro-gentlease-infant-formula-refill-pack-for-babies-0-12m-862g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/enfamil-infant-formula-milk-based-powder-with-iron-for-immune-support-0-12-months-834g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/enfamil-neuro-pro-gentlease-baby-infant-formula-0-12-months-1-13kg-each-567g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/enfamil-a-gentlease-infant-formula-refill-pack-for-babies-0-12m-2-x-471g-942g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/enfamil-a-r-added-rice-infant-formula-clinically-proven-to-reduce-reflux-spit-up-in-1-week-with-iron-dha-for-brain-development-refill-pack-for-babies-0-12m-862g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/enfamil-neuro-pro-gentlease-infant-formula-refill-pack-for-babies-0-12m-998g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/enfamil-neuro-pro-infant-formula-0-12-months-1-17kg</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/enfamil-gentlease-baby-infant-formula-0-12-months-352g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/enfamil-neuro-pro-sensitive-infant-formula-833g</t>
+    <t>https://www.uyyaala.com/products/enfamil-neuro-pro-gentlease-infant-formula-tin-pack-0-12m-777g</t>
   </si>
   <si>
     <t>urls</t>
@@ -469,17 +412,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -552,158 +495,6 @@
       </c>
       <c r="B10" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
